--- a/Шаблон.xlsx
+++ b/Шаблон.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maksimova Ekaterina\Documents\BMP-Automation-Hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maksimova Ekaterina\Documents\mediascope-jupyter-main\tv_index\1. Скрипты API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CE8C0A-05EB-46D3-AADD-60B75FFE6B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6FF7DD-1848-49B2-A441-5BB8AA8C5C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{33523021-DAF0-47C1-B6BE-E8BF7AE76E3E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="441">
   <si>
     <t>Кампания</t>
   </si>
@@ -1342,6 +1342,27 @@
   </si>
   <si>
     <t>Рекламодатель</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>W 25-54 BC</t>
+  </si>
+  <si>
+    <t>ВАЛЕНТА (ХОЛДИНГ)</t>
+  </si>
+  <si>
+    <t>sex=2 and age &gt;= 25 and age &lt;= 54 and incomeGroupRussia in (2,3)</t>
+  </si>
+  <si>
+    <t>O:\BMP Media Audit\74. Valenta Pharma\2023 (авг) - 2024 (дек)\15. Аудит факта  24 (Нац ТВ) РФ\ТВ\Отчет\Выгрузки\Valenta Pharma 1H Post Тримедат.xlsx</t>
+  </si>
+  <si>
+    <t>O:\BMP Media Audit\пул\2024\Все PBA&amp;orders 2024 (НАЦ)_27.06.xlsx</t>
+  </si>
+  <si>
+    <t>Valenta//Тримедат (01-05)</t>
   </si>
 </sst>
 </file>
@@ -1422,9 +1443,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1443,10 +1467,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1781,67 +1809,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EEB79B-4A3B-4975-BE40-553EFE0F7705}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="22.90625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="19.26953125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="22.90625" style="5" customWidth="1"/>
     <col min="9" max="9" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="4"/>
+      <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45292</v>
+      </c>
+      <c r="D2" s="12">
+        <v>45431</v>
+      </c>
+      <c r="E2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1865,19 +1922,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1897,10 +1954,10 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>310</v>
       </c>
     </row>
@@ -1920,10 +1977,10 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>311</v>
       </c>
     </row>
@@ -1943,8 +2000,8 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -1962,10 +2019,10 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>307</v>
       </c>
     </row>
@@ -1985,10 +2042,10 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2008,8 +2065,8 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -2027,10 +2084,10 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2050,10 +2107,10 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6322,7 +6379,7 @@
       <c r="D2" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
         <v>0.40178917046960166</v>
       </c>
     </row>
@@ -6339,7 +6396,7 @@
       <c r="D3" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
         <v>0.4863732873361063</v>
       </c>
     </row>
@@ -6356,7 +6413,7 @@
       <c r="D4" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
         <v>0.4178607379053873</v>
       </c>
     </row>
@@ -6373,7 +6430,7 @@
       <c r="D5" t="s">
         <v>328</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
         <v>0.32419007296967817</v>
       </c>
     </row>
@@ -6390,7 +6447,7 @@
       <c r="D6" t="s">
         <v>329</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>0.3222564330161905</v>
       </c>
     </row>
@@ -6407,7 +6464,7 @@
       <c r="D7" t="s">
         <v>330</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
         <v>0.21447703056730813</v>
       </c>
     </row>
@@ -6424,7 +6481,7 @@
       <c r="D8" t="s">
         <v>331</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
         <v>0.23452813414279014</v>
       </c>
     </row>
@@ -6441,7 +6498,7 @@
       <c r="D9" t="s">
         <v>332</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="10">
         <v>0.1580793085853025</v>
       </c>
     </row>
@@ -6458,7 +6515,7 @@
       <c r="D10" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="10">
         <v>0.18574454252145001</v>
       </c>
     </row>
@@ -6475,7 +6532,7 @@
       <c r="D11" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="10">
         <v>0.1481608808319039</v>
       </c>
     </row>
@@ -6492,7 +6549,7 @@
       <c r="D12" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6509,7 +6566,7 @@
       <c r="D13" t="s">
         <v>336</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="10">
         <v>0.12561270434196795</v>
       </c>
     </row>
@@ -6526,7 +6583,7 @@
       <c r="D14" t="s">
         <v>337</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="10">
         <v>8.2054273495836327E-2</v>
       </c>
     </row>
@@ -6543,7 +6600,7 @@
       <c r="D15" t="s">
         <v>338</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="10">
         <v>0.30525443080896553</v>
       </c>
     </row>
@@ -6560,7 +6617,7 @@
       <c r="D16" t="s">
         <v>339</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="10">
         <v>9.9546658000043337E-2</v>
       </c>
     </row>
@@ -6577,7 +6634,7 @@
       <c r="D17" t="s">
         <v>340</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="10">
         <v>4.9900731143295808E-4</v>
       </c>
     </row>
@@ -6594,7 +6651,7 @@
       <c r="D18" t="s">
         <v>341</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="10">
         <v>1.2343520816591712E-3</v>
       </c>
     </row>
@@ -6611,7 +6668,7 @@
       <c r="D19" t="s">
         <v>342</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6628,7 +6685,7 @@
       <c r="D20" t="s">
         <v>343</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="10">
         <v>2.2548687448863503E-2</v>
       </c>
     </row>
@@ -6645,7 +6702,7 @@
       <c r="D21" t="s">
         <v>344</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="10">
         <v>1.4963822933025414E-2</v>
       </c>
     </row>
@@ -6662,7 +6719,7 @@
       <c r="D22" t="s">
         <v>345</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="10">
         <v>5.7067704931360735E-2</v>
       </c>
     </row>
@@ -6679,7 +6736,7 @@
       <c r="D23" t="s">
         <v>346</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6696,7 +6753,7 @@
       <c r="D24" t="s">
         <v>416</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="10">
         <v>3.0733263728968817E-3</v>
       </c>
     </row>
@@ -6713,7 +6770,7 @@
       <c r="D25" t="s">
         <v>347</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="10">
         <v>2.166063851254026E-2</v>
       </c>
     </row>
@@ -6730,126 +6787,126 @@
       <c r="D26" t="s">
         <v>348</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E27" s="8"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E28" s="8"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E29" s="8"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E30" s="8"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E31" s="8"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E32" s="8"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E33" s="8"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E34" s="8"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E35" s="8"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E36" s="8"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E37" s="8"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E38" s="8"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E39" s="8"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E40" s="8"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E41" s="8"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E42" s="8"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E43" s="8"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E44" s="8"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E45" s="8"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E46" s="8"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E47" s="8"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E48" s="8"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E49" s="8"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E50" s="8"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E51" s="8"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E52" s="8"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E53" s="8"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E54" s="8"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E55" s="8"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E56" s="8"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E57" s="8"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E58" s="8"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E59" s="8"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E60" s="8"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E61" s="8"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E62" s="8"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E63" s="8"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E64" s="8"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E65" s="8"/>
+      <c r="E65" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
